--- a/Login_Data.xlsx
+++ b/Login_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MavenProject\Mavnproj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28690FC6-D125-4FD2-AD02-15C68BFCDFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0649835-9C47-4919-AC0F-C549F2882AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
